--- a/data/trans_dic/POLIPATOLOGIA_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2122144341347615</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.372876341373251</v>
+        <v>0.3728763413732511</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1053356942085578</v>
@@ -697,7 +697,7 @@
         <v>0.1606697381749248</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3052073449294336</v>
+        <v>0.3052073449294335</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05776221110631191</v>
+        <v>0.05780701712309212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0796449538917342</v>
+        <v>0.07908936239718616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0754561622599302</v>
+        <v>0.07305417018451252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.181054803501437</v>
+        <v>0.1799854736798216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1126319832951331</v>
+        <v>0.1131293216678105</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1800383684010177</v>
+        <v>0.1782083988087681</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1857279785204492</v>
+        <v>0.1851838799657475</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3454920565745641</v>
+        <v>0.3489494557541885</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09259626611553291</v>
+        <v>0.09284161693738587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1411219597039958</v>
+        <v>0.1437419344957659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1434235956337833</v>
+        <v>0.142235773083321</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2862085353243257</v>
+        <v>0.28444957696343</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09026826163505278</v>
+        <v>0.08888884646875563</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.120107955191567</v>
+        <v>0.1180422658257806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1161291489840067</v>
+        <v>0.1122349768861589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2411096854654158</v>
+        <v>0.2416059212304939</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1500124425773283</v>
+        <v>0.1496249551448327</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2251023447118975</v>
+        <v>0.2245390508720234</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2408546102607802</v>
+        <v>0.2377673730220535</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3992058003602572</v>
+        <v>0.4025433459081662</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1179451502735425</v>
+        <v>0.1177391917959822</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1732336798917507</v>
+        <v>0.1741047247806217</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1786887060390378</v>
+        <v>0.1798411398143416</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3265349119241621</v>
+        <v>0.3263736297105193</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01000983412283289</v>
+        <v>0.0101038376525491</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01001142450925893</v>
+        <v>0.009671273660436826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01318268687158136</v>
+        <v>0.01346837411294882</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05591620742472529</v>
+        <v>0.0557340992496896</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02078195133285121</v>
+        <v>0.02116892469302372</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02969023216601584</v>
+        <v>0.0300427428932015</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04901432344680113</v>
+        <v>0.04781506329750155</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1010145084348455</v>
+        <v>0.1001586424203182</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01681817320414114</v>
+        <v>0.0166608104237073</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02019929004278797</v>
+        <v>0.0212758112618188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03286384812519043</v>
+        <v>0.03280326041633645</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08088026169728785</v>
+        <v>0.08098126023997078</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02211272586926816</v>
+        <v>0.02227171072408679</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02046035308964083</v>
+        <v>0.02008611138646527</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02513069349630431</v>
+        <v>0.02501933265797569</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07647156878949644</v>
+        <v>0.0757629038996967</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03786794329309511</v>
+        <v>0.03885512256393574</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05011164133478067</v>
+        <v>0.05059970236367446</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07137037781925314</v>
+        <v>0.07060587293592907</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1231845839170068</v>
+        <v>0.1223993515968853</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02753838066976151</v>
+        <v>0.02703419256358066</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0316900160095815</v>
+        <v>0.03229471876338366</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04564781369823115</v>
+        <v>0.04564856145297606</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09611810579536836</v>
+        <v>0.09639234923914368</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03158484133094409</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08524615539301024</v>
+        <v>0.08524615539301023</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01960892077637358</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0112729439677048</v>
+        <v>0.0105894882474529</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004167729118520041</v>
+        <v>0.00411188902736049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008820581933057807</v>
+        <v>0.009837256521772371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02882107846895223</v>
+        <v>0.02956167787556948</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008369793729561878</v>
+        <v>0.008393550538960494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01901774174166269</v>
+        <v>0.0192219551921269</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01799421466867093</v>
+        <v>0.0179631761516934</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07009096918095271</v>
+        <v>0.06857131662763553</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01241001392160914</v>
+        <v>0.01213552867271221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01399275387600234</v>
+        <v>0.01406352192009844</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0170936681447118</v>
+        <v>0.01675876173642969</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05379028199643889</v>
+        <v>0.05290356446111943</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03788372758490396</v>
+        <v>0.03697947006684145</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0351665494661786</v>
+        <v>0.03439981939905433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03712821644007899</v>
+        <v>0.03550561472761764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05656770717444481</v>
+        <v>0.05762803208007057</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03163448551734643</v>
+        <v>0.03357007247790181</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05465273008574655</v>
+        <v>0.05845297226482992</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04919600038269206</v>
+        <v>0.0507090454073086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1035547145343696</v>
+        <v>0.1034618140790361</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02937173415779392</v>
+        <v>0.03017162432996591</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03619820978265189</v>
+        <v>0.03653151958805426</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03829710763962978</v>
+        <v>0.03820532449377254</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07458918199195733</v>
+        <v>0.0756842282541824</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06738987862603055</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1250379345571367</v>
+        <v>0.1250379345571368</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03125163568611294</v>
+        <v>0.03174239972324636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02979157782992566</v>
+        <v>0.02957475027370543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07623672505675638</v>
+        <v>0.07647696108482191</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08827267821195087</v>
+        <v>0.08937713014051643</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08803451409003295</v>
+        <v>0.08772526407890874</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1537145346841829</v>
+        <v>0.1546361932512738</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06267177374456899</v>
+        <v>0.06295212055958696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06094374959922351</v>
+        <v>0.06083547140296625</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1190456030809129</v>
+        <v>0.118345468558075</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04525691516134382</v>
+        <v>0.04508304848030791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04156774569406527</v>
+        <v>0.04198307695465731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09405986373367627</v>
+        <v>0.09379161216040466</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1088803932664483</v>
+        <v>0.1087884785226846</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1084881445322645</v>
+        <v>0.109089743566058</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.173643780911108</v>
+        <v>0.1731027317223131</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07527910946223723</v>
+        <v>0.07549410162994891</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0738991190856936</v>
+        <v>0.07318690092701866</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1322048297415857</v>
+        <v>0.1320462460487144</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>59595</v>
+        <v>59641</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>77625</v>
+        <v>77084</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56920</v>
+        <v>55108</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>104745</v>
+        <v>104127</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>148124</v>
+        <v>148778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>240855</v>
+        <v>238407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>184736</v>
+        <v>184195</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>284008</v>
+        <v>286850</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>217308</v>
+        <v>217884</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>326336</v>
+        <v>332395</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>250849</v>
+        <v>248771</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>400854</v>
+        <v>398391</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>93132</v>
+        <v>91709</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>117062</v>
+        <v>115049</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87602</v>
+        <v>84664</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>139489</v>
+        <v>139776</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>197283</v>
+        <v>196774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>301141</v>
+        <v>300388</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>239568</v>
+        <v>236498</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>328162</v>
+        <v>330906</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>276798</v>
+        <v>276314</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>400592</v>
+        <v>402607</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>312528</v>
+        <v>314543</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>457334</v>
+        <v>457108</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16951</v>
+        <v>17110</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19662</v>
+        <v>18994</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27372</v>
+        <v>27966</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>124725</v>
+        <v>124319</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32995</v>
+        <v>33609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52190</v>
+        <v>52809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>97455</v>
+        <v>95071</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>219342</v>
+        <v>217484</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>55182</v>
+        <v>54666</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>75177</v>
+        <v>79183</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>133581</v>
+        <v>133335</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>356032</v>
+        <v>356476</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37446</v>
+        <v>37715</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40183</v>
+        <v>39448</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52181</v>
+        <v>51950</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>170575</v>
+        <v>168994</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60122</v>
+        <v>61689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>88086</v>
+        <v>88944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>141906</v>
+        <v>140386</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>267482</v>
+        <v>265777</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90356</v>
+        <v>88702</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>117943</v>
+        <v>120193</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>185544</v>
+        <v>185547</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>423108</v>
+        <v>424315</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6216</v>
+        <v>5839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4824</v>
+        <v>5380</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20509</v>
+        <v>21036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3987</v>
+        <v>3999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8722</v>
+        <v>8816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9881</v>
+        <v>9864</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>51508</v>
+        <v>50391</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12755</v>
+        <v>12473</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13151</v>
+        <v>13217</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18735</v>
+        <v>18368</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>77806</v>
+        <v>76523</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20889</v>
+        <v>20391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16921</v>
+        <v>16553</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20305</v>
+        <v>19418</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40253</v>
+        <v>41007</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15071</v>
+        <v>15993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25065</v>
+        <v>26808</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27015</v>
+        <v>27846</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>76100</v>
+        <v>76032</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30189</v>
+        <v>31011</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>34020</v>
+        <v>34333</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41975</v>
+        <v>41874</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>107891</v>
+        <v>109475</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>106874</v>
+        <v>108552</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>100625</v>
+        <v>99892</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>268405</v>
+        <v>269251</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>313741</v>
+        <v>317667</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>310947</v>
+        <v>309854</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>573095</v>
+        <v>576531</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>437074</v>
+        <v>439029</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>421104</v>
+        <v>420356</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>862960</v>
+        <v>857885</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>154769</v>
+        <v>154174</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>140400</v>
+        <v>141803</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>331155</v>
+        <v>330211</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>386986</v>
+        <v>386659</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>383191</v>
+        <v>385316</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>647397</v>
+        <v>645380</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>524997</v>
+        <v>526497</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>510622</v>
+        <v>505701</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>958351</v>
+        <v>957202</v>
       </c>
     </row>
     <row r="20">
